--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1791.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1791.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.185102722457424</v>
+        <v>0.7061076164245605</v>
       </c>
       <c r="B1">
-        <v>2.331742604075618</v>
+        <v>1.424153685569763</v>
       </c>
       <c r="C1">
-        <v>5.301603885813383</v>
+        <v>4.145806789398193</v>
       </c>
       <c r="D1">
-        <v>2.436663441162072</v>
+        <v>2.486992835998535</v>
       </c>
       <c r="E1">
-        <v>1.099029232986666</v>
+        <v>0.5606345534324646</v>
       </c>
     </row>
   </sheetData>
